--- a/biology/Microbiologie/Cyrtolophosididae/Cyrtolophosididae.xlsx
+++ b/biology/Microbiologie/Cyrtolophosididae/Cyrtolophosididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyrtolophosididae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Cyrtolophosidida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Cyrtolophosis, dérivé du grec ancien κυρτός /  curtos, « courbé, bombé », et λοφωσις  / lophosis, « portant une crête », en référence à la forme de l'organisme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Cyrtolophosis, dérivé du grec ancien κυρτός /  curtos, « courbé, bombé », et λοφωσις  / lophosis, « portant une crête », en référence à la forme de l'organisme.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stokes en 1885, fait la description suivante du genre type : 
-« Animalcules ovales, de forme persistante, entièrement ciliés, les cils adoraux différents de ceux de la surface générale, l'extrémité antérieure portant un faisceau de longs poils vibratiles recourbés distalement ; sécrétant et habitant un zoœcytium diversement modifié, mucilagineux, granuleux, auquel ils ne sont nullement attachés et d'où ils peuvent passer à volonté ; ouverture buccale à l'extrémité postérieure d'un sillon creusé, allongé, traversant longitudinalement la partie antérieure de la face ventrale, portant sur son bord droit une série de cirroses, cils adoraux ; noyau et vésicule contractile unique, bien visible ; ouverture anale postéro-terminale[1]. »
+« Animalcules ovales, de forme persistante, entièrement ciliés, les cils adoraux différents de ceux de la surface générale, l'extrémité antérieure portant un faisceau de longs poils vibratiles recourbés distalement ; sécrétant et habitant un zoœcytium diversement modifié, mucilagineux, granuleux, auquel ils ne sont nullement attachés et d'où ils peuvent passer à volonté ; ouverture buccale à l'extrémité postérieure d'un sillon creusé, allongé, traversant longitudinalement la partie antérieure de la face ventrale, portant sur son bord droit une série de cirroses, cils adoraux ; noyau et vésicule contractile unique, bien visible ; ouverture anale postéro-terminale. »
 </t>
         </is>
       </c>
@@ -575,16 +591,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 novembre 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 novembre 2022) :
 Apocyrtolophosis Foissner, Bourland, Wolf, Stoeck &amp; Dunthorn, 2014
 Aristerostoma Kahl, 1926
 Balantiophorus
 Cyrtolophosis Stokes, 1885
 Pseudocyrtolophosis
 Erna Aessht (2018) y inclus aussi : 
-Plesiocaryon Foissner, Agatha &amp; Berger, 2002[3].</t>
+Plesiocaryon Foissner, Agatha &amp; Berger, 2002.</t>
         </is>
       </c>
     </row>
@@ -612,10 +630,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cyrtolophosididae Stokes, 1888[4].
-D'après Lynn, la famille des Cyrtolophosididae a deux synonymes : Cyrtolophosiidae Stokes, 1888 et  Cyrtolophosidae Foissner (d), 1978[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cyrtolophosididae Stokes, 1888.
+D'après Lynn, la famille des Cyrtolophosididae a deux synonymes : Cyrtolophosiidae Stokes, 1888 et  Cyrtolophosidae Foissner (d), 1978.
 </t>
         </is>
       </c>
